--- a/data/trans_dic/P0901-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P0901-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,94%</t>
+          <t>8,17%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>14,0%</t>
+          <t>12,9%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>19,88%</t>
+          <t>12,97%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>23,99%</t>
+          <t>14,99%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>15,47%</t>
+          <t>12,59%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>25,39%</t>
+          <t>22,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>21,95%</t>
+          <t>23,7%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>21,98%</t>
+          <t>20,46%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>10,65%</t>
+          <t>10,37%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>19,6%</t>
+          <t>17,43%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>20,9%</t>
+          <t>18,33%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>22,86%</t>
+          <t>17,81%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,63; 12,47</t>
+          <t>6,29; 10,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,01; 20,41</t>
+          <t>10,19; 15,59</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,91; 28,34</t>
+          <t>10,54; 15,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16,38; 35,76</t>
+          <t>12,2; 17,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,7; 22,89</t>
+          <t>10,01; 15,05</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,55; 34,0</t>
+          <t>18,92; 25,22</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>14,15; 31,18</t>
+          <t>20,06; 26,97</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>17,17; 27,93</t>
+          <t>18,38; 23,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,28; 15,36</t>
+          <t>8,91; 12,04</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>14,85; 25,41</t>
+          <t>15,4; 19,45</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>15,94; 27,37</t>
+          <t>16,2; 20,61</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>18,51; 28,79</t>
+          <t>16,03; 19,81</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8,61%</t>
+          <t>9,81%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>12,68%</t>
+          <t>12,64%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>11,53%</t>
+          <t>9,98%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>13,86%</t>
+          <t>9,67%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>12,03%</t>
+          <t>16,12%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>21,35%</t>
+          <t>22,51%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>24,05%</t>
+          <t>17,86%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>20,29%</t>
+          <t>20,25%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>10,32%</t>
+          <t>12,97%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>17,01%</t>
+          <t>17,61%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>17,8%</t>
+          <t>13,96%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>17,2%</t>
+          <t>14,38%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,53; 11,06</t>
+          <t>8,04; 11,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,9; 15,89</t>
+          <t>10,37; 14,8</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,98; 14,5</t>
+          <t>8,13; 12,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,38; 16,99</t>
+          <t>5,45; 13,08</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,61; 14,75</t>
+          <t>13,68; 18,7</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,85; 25,04</t>
+          <t>19,89; 25,32</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>20,67; 27,93</t>
+          <t>15,36; 20,33</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,77; 22,98</t>
+          <t>18,3; 22,22</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8,83; 12,11</t>
+          <t>11,57; 14,62</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>14,87; 19,55</t>
+          <t>15,89; 19,26</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>15,65; 20,26</t>
+          <t>12,42; 15,63</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>15,29; 19,2</t>
+          <t>9,37; 16,87</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>9,81%</t>
+          <t>8,63%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>12,64%</t>
+          <t>9,72%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,98%</t>
+          <t>8,39%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>11,88%</t>
+          <t>15,18%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>16,12%</t>
+          <t>17,63%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>22,51%</t>
+          <t>18,61%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>17,86%</t>
+          <t>18,52%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>20,2%</t>
+          <t>14,77%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>12,97%</t>
+          <t>13,15%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>17,61%</t>
+          <t>14,22%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>13,96%</t>
+          <t>13,54%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>16,07%</t>
+          <t>14,95%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,04; 11,9</t>
+          <t>6,56; 10,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,37; 14,8</t>
+          <t>7,66; 12,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,13; 12,35</t>
+          <t>6,49; 10,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,63; 14,29</t>
+          <t>12,47; 18,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>13,68; 18,7</t>
+          <t>15,0; 20,79</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>19,89; 25,32</t>
+          <t>15,82; 21,45</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>15,36; 20,33</t>
+          <t>16,02; 21,61</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>18,21; 22,13</t>
+          <t>8,02; 19,75</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>11,57; 14,62</t>
+          <t>11,32; 14,96</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>15,89; 19,26</t>
+          <t>12,42; 16,0</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>12,42; 15,63</t>
+          <t>11,69; 15,37</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>14,29; 17,72</t>
+          <t>9,67; 17,71</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,63%</t>
+          <t>9,22%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,72%</t>
+          <t>12,48%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,39%</t>
+          <t>10,92%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>15,6%</t>
+          <t>14,18%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>17,63%</t>
+          <t>18,18%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>18,61%</t>
+          <t>20,21%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>18,52%</t>
+          <t>18,99%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>17,25%</t>
+          <t>20,84%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>13,15%</t>
+          <t>13,92%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>14,22%</t>
+          <t>16,54%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>13,54%</t>
+          <t>15,17%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>16,5%</t>
+          <t>17,79%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,56; 10,94</t>
+          <t>7,54; 11,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,66; 12,41</t>
+          <t>10,41; 14,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,49; 10,71</t>
+          <t>9,06; 13,11</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,87; 18,61</t>
+          <t>12,14; 16,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>15,0; 20,79</t>
+          <t>15,72; 20,55</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,82; 21,45</t>
+          <t>17,78; 22,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,02; 21,61</t>
+          <t>16,47; 21,56</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,16; 20,6</t>
+          <t>17,12; 23,61</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>11,32; 14,96</t>
+          <t>12,56; 15,73</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>12,42; 16,0</t>
+          <t>14,88; 18,28</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>11,69; 15,37</t>
+          <t>13,52; 17,01</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>12,84; 18,79</t>
+          <t>15,86; 19,4</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>9,22%</t>
+          <t>9,05%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>12,48%</t>
+          <t>12,0%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>10,92%</t>
+          <t>10,48%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>14,31%</t>
+          <t>12,98%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>18,18%</t>
+          <t>16,34%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>20,21%</t>
+          <t>20,88%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>18,99%</t>
+          <t>19,45%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>22,38%</t>
+          <t>19,07%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>13,92%</t>
+          <t>12,75%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>16,54%</t>
+          <t>16,52%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>15,17%</t>
+          <t>15,06%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>18,7%</t>
+          <t>16,11%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,54; 11,03</t>
+          <t>8,13; 10,14</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10,41; 14,95</t>
+          <t>10,88; 13,36</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,06; 13,11</t>
+          <t>9,42; 11,61</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>12,28; 16,67</t>
+          <t>10,1; 14,58</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>15,72; 20,55</t>
+          <t>15,08; 17,67</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>17,78; 22,81</t>
+          <t>19,51; 22,31</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>16,47; 21,56</t>
+          <t>17,92; 20,93</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>20,13; 25,19</t>
+          <t>16,04; 20,88</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>12,56; 15,73</t>
+          <t>11,95; 13,55</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>14,88; 18,28</t>
+          <t>15,63; 17,44</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>13,52; 17,01</t>
+          <t>14,07; 15,95</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>17,09; 20,4</t>
+          <t>13,97; 17,5</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>9,05%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>12,0%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>10,48%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>14,06%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>16,34%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>20,88%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>19,45%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>20,25%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>12,75%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>16,52%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>15,06%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>17,34%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>8,13; 10,14</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>10,88; 13,36</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>9,42; 11,61</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>12,83; 15,39</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>15,08; 17,67</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>19,51; 22,31</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>17,92; 20,93</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>18,37; 21,62</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>11,95; 13,55</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>15,63; 17,44</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>14,07; 15,95</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>16,17; 18,33</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P0901-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P0901-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,29; 10,14</t>
+          <t>6,23; 10,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,19; 15,59</t>
+          <t>10,44; 15,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,54; 15,85</t>
+          <t>10,67; 15,97</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,2; 17,78</t>
+          <t>12,41; 18,06</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,01; 15,05</t>
+          <t>10,2; 15,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>18,92; 25,22</t>
+          <t>18,98; 25,29</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>20,06; 26,97</t>
+          <t>20,41; 26,97</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>18,38; 23,0</t>
+          <t>18,1; 22,66</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,91; 12,04</t>
+          <t>8,89; 12,17</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>15,4; 19,45</t>
+          <t>15,46; 19,59</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>16,2; 20,61</t>
+          <t>16,37; 20,37</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>16,03; 19,81</t>
+          <t>16,11; 19,75</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,04; 11,9</t>
+          <t>8,07; 12,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,37; 14,8</t>
+          <t>10,74; 15,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,13; 12,35</t>
+          <t>8,24; 12,07</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,45; 13,08</t>
+          <t>5,25; 13,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>13,68; 18,7</t>
+          <t>13,96; 18,81</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>19,89; 25,32</t>
+          <t>19,99; 25,07</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>15,36; 20,33</t>
+          <t>15,31; 20,51</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>18,3; 22,22</t>
+          <t>18,21; 22,28</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>11,57; 14,62</t>
+          <t>11,37; 14,47</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>15,89; 19,26</t>
+          <t>15,86; 19,33</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>12,42; 15,63</t>
+          <t>12,43; 15,66</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>9,37; 16,87</t>
+          <t>9,39; 16,73</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,56; 10,94</t>
+          <t>6,61; 11,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,66; 12,41</t>
+          <t>7,51; 12,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,49; 10,71</t>
+          <t>6,55; 10,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,47; 18,2</t>
+          <t>12,68; 18,02</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>15,0; 20,79</t>
+          <t>14,89; 20,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,82; 21,45</t>
+          <t>15,69; 21,66</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>16,02; 21,61</t>
+          <t>15,58; 21,47</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,02; 19,75</t>
+          <t>8,14; 19,95</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>11,32; 14,96</t>
+          <t>11,31; 14,98</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>12,42; 16,0</t>
+          <t>12,28; 15,99</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>11,69; 15,37</t>
+          <t>11,86; 15,44</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>9,67; 17,71</t>
+          <t>9,91; 17,64</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,54; 11,03</t>
+          <t>7,38; 11,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,41; 14,95</t>
+          <t>10,24; 14,97</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,06; 13,11</t>
+          <t>8,89; 13,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,14; 16,61</t>
+          <t>12,09; 16,68</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>15,72; 20,55</t>
+          <t>15,98; 20,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,78; 22,81</t>
+          <t>17,87; 22,96</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,47; 21,56</t>
+          <t>16,56; 21,8</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,12; 23,61</t>
+          <t>16,92; 23,32</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>12,56; 15,73</t>
+          <t>12,36; 15,44</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>14,88; 18,28</t>
+          <t>14,99; 18,33</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>13,52; 17,01</t>
+          <t>13,64; 16,93</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>15,86; 19,4</t>
+          <t>15,72; 19,63</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,13; 10,14</t>
+          <t>8,07; 10,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10,88; 13,36</t>
+          <t>11,01; 13,2</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,42; 11,61</t>
+          <t>9,49; 11,57</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>10,1; 14,58</t>
+          <t>10,31; 14,55</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>15,08; 17,67</t>
+          <t>15,01; 17,65</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>19,51; 22,31</t>
+          <t>19,46; 22,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>17,92; 20,93</t>
+          <t>18,1; 20,89</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>16,04; 20,88</t>
+          <t>15,27; 20,78</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>11,95; 13,55</t>
+          <t>11,96; 13,66</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>15,63; 17,44</t>
+          <t>15,63; 17,46</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>14,07; 15,95</t>
+          <t>14,15; 15,96</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>13,97; 17,5</t>
+          <t>14,09; 17,3</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que hizo menos de lo que hubiera querido por problemas físicos</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>417</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>56675</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>90737</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>87529</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>95153</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>86692</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>153343</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>159458</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>138156</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>143367</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>244080</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>246987</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>233309</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>43257; 71925</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>73421; 109073</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>72000; 107797</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>78800; 114638</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>70218; 104010</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>132269; 176301</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>137344; 181477</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>122192; 152985</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>122907; 168298</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>216501; 274310</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>220638; 274532</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>211009; 258789</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>351</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>326</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>483</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>94327</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>128650</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>102065</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>115357</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>156099</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>232370</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>186256</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>193821</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>250426</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>361021</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>288321</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>309178</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>77619; 116422</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>109305; 152842</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>84221; 123361</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>62611; 156370</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>135176; 182148</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>206376; 258793</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>159720; 213935</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>174274; 213276</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>219547; 279371</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>325168; 396342</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>256808; 323427</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>201863; 359663</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>354</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>58578</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>73674</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>63735</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>106989</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>120530</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>144638</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>145365</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>137827</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>179108</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>218312</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>209099</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>244817</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>44882; 74942</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>56893; 92184</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>49744; 81306</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>89374; 126968</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>101818; 139836</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>121960; 168348</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>122281; 168529</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>75934; 186238</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>154038; 204025</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>188427; 245380</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>183257; 238524</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>162320; 288954</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>377</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>311</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>536</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>86838</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>118263</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>102371</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>131221</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>188813</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>212564</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>198239</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>228229</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>275651</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>330826</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>300611</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>359450</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>69571; 104675</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>97036; 141882</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>83366; 124763</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>111823; 154296</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>165954; 215956</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>187948; 241563</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>172854; 227536</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>185238; 255382</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>244869; 305743</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>299762; 366555</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>270275; 335385</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>317532; 396488</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>346</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>526</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>530</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>687</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>596</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1264</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>830</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1062</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>942</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1790</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>296417</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>411325</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>355699</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>448719</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>552134</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>742915</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>689319</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>698033</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>848551</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1154239</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>1045018</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>1146752</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>264385; 331126</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>377124; 452238</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>322135; 392663</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>356462; 503192</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>507095; 596362</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>692353; 785922</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>641640; 740543</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>559095; 760672</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>795998; 909314</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1091513; 1219392</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>981712; 1107494</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>1003297; 1231605</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>